--- a/biology/Médecine/1204_en_santé_et_médecine/1204_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1204_en_santé_et_médecine/1204_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1204_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1204_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1204 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1204_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1204_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Janvier-mai : causées par la sécheresse et les fortes chaleurs, « la famine et la mortalité [sont] très grandes en Angleterre, en France, en Espagne et en Italie[1] ».
-13 mai : le pape Innocent III « prend sous la protection du Saint-Siège » l'hôpital de Zurich, fondé par Berthold V, duc de Zähringen[2].
-Fondation par Eudes III, duc de Bourgogne, de l'hôpital de Dijon, d'abord confié aux frères de l'ordre du Saint-Esprit, associé au XVIe siècle à l'hôpital Notre-Dame de la Charité et élevé en 1669 au rang d'hôpital général, devenu hôpital du Bocage le 1er décembre 1962, hôpital François-Mitterrand le 6 juillet 2015 et intégré au CHU de Dijon-Bourgogne[3],[4],[5].
-Fondation à Tonnerre, par le même Eudes III, duc de Bourgogne, d'un hôpital également confié aux hospitaliers du Saint-Esprit[6].
-Le pape Innocent III, confie à Guy de Montpellier, fondateur de l'ordre des Hospitaliers du Saint-Esprit, l'hôpital Santa Maria de Sassia qu'il vient de faire reconstruire[7] et qu'il dote d'un des premiers tours d'abandon connus[8].
-Dans une charte de Robert Ier, première mention de l'hôtel-Dieu d'Alençon[9].
-Première mention de l'aumônerie séculière Saint-James à Niort, dans le Poitou, vouée à l'accueil « des pèlerins, des pauvres et des malades » et qui sera rattachée à l'hôpital en 1681[10].
-Vers 1204 : fondation de la maladrerie Saint-Lazare à Saint-Quentin, dans le Vermandois[11].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Janvier-mai : causées par la sécheresse et les fortes chaleurs, « la famine et la mortalité [sont] très grandes en Angleterre, en France, en Espagne et en Italie ».
+13 mai : le pape Innocent III « prend sous la protection du Saint-Siège » l'hôpital de Zurich, fondé par Berthold V, duc de Zähringen.
+Fondation par Eudes III, duc de Bourgogne, de l'hôpital de Dijon, d'abord confié aux frères de l'ordre du Saint-Esprit, associé au XVIe siècle à l'hôpital Notre-Dame de la Charité et élevé en 1669 au rang d'hôpital général, devenu hôpital du Bocage le 1er décembre 1962, hôpital François-Mitterrand le 6 juillet 2015 et intégré au CHU de Dijon-Bourgogne.
+Fondation à Tonnerre, par le même Eudes III, duc de Bourgogne, d'un hôpital également confié aux hospitaliers du Saint-Esprit.
+Le pape Innocent III, confie à Guy de Montpellier, fondateur de l'ordre des Hospitaliers du Saint-Esprit, l'hôpital Santa Maria de Sassia qu'il vient de faire reconstruire et qu'il dote d'un des premiers tours d'abandon connus.
+Dans une charte de Robert Ier, première mention de l'hôtel-Dieu d'Alençon.
+Première mention de l'aumônerie séculière Saint-James à Niort, dans le Poitou, vouée à l'accueil « des pèlerins, des pauvres et des malades » et qui sera rattachée à l'hôpital en 1681.
+Vers 1204 : fondation de la maladrerie Saint-Lazare à Saint-Quentin, dans le Vermandois.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1204_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1204_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">13 décembre : Maïmonide (né en 1138), philosophe et médecin juif andalou, médecin, à Damas, du fils de Saladin, Al-Afdhal, à la demande duquel il rédige la plupart de ses traités médicaux, dont le Traité sur l'asthme et la Guérison par l'esprit[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 décembre : Maïmonide (né en 1138), philosophe et médecin juif andalou, médecin, à Damas, du fils de Saladin, Al-Afdhal, à la demande duquel il rédige la plupart de ses traités médicaux, dont le Traité sur l'asthme et la Guérison par l'esprit.
 </t>
         </is>
       </c>
